--- a/CircleRoomTask.xlsx
+++ b/CircleRoomTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3009C592-94FF-4E16-A9BB-5B1D334C5198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03AA8BF-029B-4DF5-969B-350835FDCBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{EB2F0045-DD93-40BE-98FB-06CC30841AB0}"/>
+    <workbookView xWindow="4260" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{EB2F0045-DD93-40BE-98FB-06CC30841AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -410,6 +410,58 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー死亡</t>
+    <rPh sb="5" eb="7">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁反射(エネミー)</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択時</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他にあったけど
+思い出せないから
+時間だけ取っておく</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,13 +769,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -776,9 +825,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -786,6 +832,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFED9D-AEE0-4311-8D0F-D517FAE7104E}">
-  <dimension ref="B1:I45"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1116,27 +1177,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
@@ -1144,529 +1205,587 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="21">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="19">
         <f>SUM(E3:E80)</f>
-        <v>385</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="6"/>
       <c r="I5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6"/>
       <c r="I6">
         <f>I3/2</f>
-        <v>192.5</v>
+        <v>252.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>4</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>12</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>6</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>4</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>12</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>60</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>10</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="6"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="6"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="6"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="6"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="6"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="6"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>30</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="6"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="6"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>20</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="6"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="14">
         <v>6</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="22">
         <v>40</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="21">
         <v>40</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D44" s="20" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D45" s="20" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="24">
         <v>40</v>
       </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="22">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="21">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="21">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="23">
+        <v>50</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
